--- a/KatalonData/Bootstrap/VSP-Payments-Data-Prod.xlsx
+++ b/KatalonData/Bootstrap/VSP-Payments-Data-Prod.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="206">
   <si>
     <t>Result</t>
   </si>
@@ -592,6 +592,69 @@
   </si>
   <si>
     <t>Fri Mar 14 07:42:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 00:54:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 00:55:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 00:57:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 00:58:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 01:00:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 01:02:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 01:03:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 01:04:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 01:05:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 01:06:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 01:07:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 01:09:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 01:11:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 01:12:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 01:14:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 27 03:25:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 27 03:26:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 27 03:27:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 27 03:28:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 27 03:30:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 27 03:31:36 IST 2025</t>
   </si>
 </sst>
 </file>
@@ -1090,7 +1153,7 @@
         <v>86</v>
       </c>
       <c r="B2" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>9</v>
@@ -1170,7 +1233,7 @@
         <v>86</v>
       </c>
       <c r="B3" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>9</v>
@@ -1250,7 +1313,7 @@
         <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>9</v>
@@ -1330,7 +1393,7 @@
         <v>86</v>
       </c>
       <c r="B5" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>9</v>
@@ -1410,7 +1473,7 @@
         <v>86</v>
       </c>
       <c r="B6" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>9</v>
@@ -1490,7 +1553,7 @@
         <v>86</v>
       </c>
       <c r="B7" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>9</v>
@@ -1704,7 +1767,7 @@
         <v>86</v>
       </c>
       <c r="B2" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>9</v>
@@ -1784,7 +1847,7 @@
         <v>86</v>
       </c>
       <c r="B3" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>9</v>
@@ -1864,7 +1927,7 @@
         <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>9</v>
@@ -1944,7 +2007,7 @@
         <v>86</v>
       </c>
       <c r="B5" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>9</v>
@@ -2024,7 +2087,7 @@
         <v>86</v>
       </c>
       <c r="B6" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>9</v>
@@ -2104,7 +2167,7 @@
         <v>86</v>
       </c>
       <c r="B7" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>9</v>
@@ -2767,7 +2830,7 @@
         <v>86</v>
       </c>
       <c r="B8" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>9</v>
@@ -2841,7 +2904,7 @@
         <v>86</v>
       </c>
       <c r="B9" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>9</v>
@@ -2915,7 +2978,7 @@
         <v>86</v>
       </c>
       <c r="B10" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>9</v>

--- a/KatalonData/Bootstrap/VSP-Payments-Data-Prod.xlsx
+++ b/KatalonData/Bootstrap/VSP-Payments-Data-Prod.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="257">
   <si>
     <t>Result</t>
   </si>
@@ -655,6 +655,159 @@
   </si>
   <si>
     <t>Thu Mar 27 03:31:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 29 19:05:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 29 19:06:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 29 19:07:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 29 19:08:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 29 19:09:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 29 19:10:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 29 19:11:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 29 19:11:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 29 19:12:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 29 19:14:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 29 19:15:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 29 19:15:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 29 19:16:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 29 19:17:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 29 19:18:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 30 00:16:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 30 00:17:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 30 00:18:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 30 00:18:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 30 00:19:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 30 00:20:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 30 00:21:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 30 00:21:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 30 00:22:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 30 00:22:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 30 00:23:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 30 00:24:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 30 00:24:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 30 00:25:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 30 00:26:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 30 19:00:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 30 19:01:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 30 19:01:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 30 19:02:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 30 19:03:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 30 19:03:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu May 01 19:05:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu May 01 19:06:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu May 01 19:07:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu May 01 19:07:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu May 01 19:08:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu May 01 19:09:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu May 01 19:09:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu May 01 19:10:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu May 01 19:11:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu May 01 19:12:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu May 01 19:13:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu May 01 19:14:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu May 01 19:14:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu May 01 19:15:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu May 01 19:15:54 IST 2025</t>
   </si>
 </sst>
 </file>
@@ -1153,7 +1306,7 @@
         <v>86</v>
       </c>
       <c r="B2" t="s">
-        <v>200</v>
+        <v>251</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>9</v>
@@ -1233,7 +1386,7 @@
         <v>86</v>
       </c>
       <c r="B3" t="s">
-        <v>201</v>
+        <v>252</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>9</v>
@@ -1313,7 +1466,7 @@
         <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>202</v>
+        <v>253</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>9</v>
@@ -1393,7 +1546,7 @@
         <v>86</v>
       </c>
       <c r="B5" t="s">
-        <v>203</v>
+        <v>254</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>9</v>
@@ -1473,7 +1626,7 @@
         <v>86</v>
       </c>
       <c r="B6" t="s">
-        <v>204</v>
+        <v>255</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>9</v>
@@ -1553,7 +1706,7 @@
         <v>86</v>
       </c>
       <c r="B7" t="s">
-        <v>205</v>
+        <v>256</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>9</v>
@@ -1767,7 +1920,7 @@
         <v>86</v>
       </c>
       <c r="B2" t="s">
-        <v>185</v>
+        <v>242</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>9</v>
@@ -1847,7 +2000,7 @@
         <v>86</v>
       </c>
       <c r="B3" t="s">
-        <v>186</v>
+        <v>243</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>9</v>
@@ -1927,7 +2080,7 @@
         <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>187</v>
+        <v>244</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>9</v>
@@ -2007,7 +2160,7 @@
         <v>86</v>
       </c>
       <c r="B5" t="s">
-        <v>188</v>
+        <v>245</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>9</v>
@@ -2087,7 +2240,7 @@
         <v>86</v>
       </c>
       <c r="B6" t="s">
-        <v>189</v>
+        <v>246</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>9</v>
@@ -2167,7 +2320,7 @@
         <v>86</v>
       </c>
       <c r="B7" t="s">
-        <v>190</v>
+        <v>247</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>9</v>
@@ -2830,7 +2983,7 @@
         <v>86</v>
       </c>
       <c r="B8" t="s">
-        <v>191</v>
+        <v>248</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>9</v>
@@ -2904,7 +3057,7 @@
         <v>86</v>
       </c>
       <c r="B9" t="s">
-        <v>192</v>
+        <v>249</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>9</v>
@@ -2978,7 +3131,7 @@
         <v>86</v>
       </c>
       <c r="B10" t="s">
-        <v>193</v>
+        <v>250</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>9</v>

--- a/KatalonData/Bootstrap/VSP-Payments-Data-Prod.xlsx
+++ b/KatalonData/Bootstrap/VSP-Payments-Data-Prod.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="247">
   <si>
     <t>Notes</t>
   </si>
@@ -704,6 +704,81 @@
   </si>
   <si>
     <t>Wed May 21 15:59:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jun 16 18:42:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jun 16 18:43:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jun 16 18:44:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jun 16 18:45:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jun 16 18:45:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jun 16 18:46:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jun 16 18:46:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jun 16 18:47:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jun 16 18:48:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 17:53:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 17:53:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 17:54:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 17:55:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 17:55:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 17:56:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 17:57:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 17:57:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 17:58:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 17:58:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 17:59:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:00:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:00:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:01:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:02:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:02:44 IST 2025</t>
   </si>
 </sst>
 </file>
@@ -1209,7 +1284,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="C2" t="s">
         <v>74</v>
@@ -1825,7 +1900,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>205</v>
+        <v>231</v>
       </c>
       <c r="C2" t="s">
         <v>74</v>
@@ -1906,7 +1981,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="C3" t="s">
         <v>74</v>
@@ -1987,7 +2062,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>207</v>
+        <v>233</v>
       </c>
       <c r="C4" t="s">
         <v>74</v>
@@ -2068,7 +2143,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>208</v>
+        <v>234</v>
       </c>
       <c r="C5" t="s">
         <v>74</v>
@@ -2149,7 +2224,7 @@
         <v>74</v>
       </c>
       <c r="B6" t="s">
-        <v>209</v>
+        <v>235</v>
       </c>
       <c r="C6" t="s">
         <v>74</v>
@@ -2230,7 +2305,7 @@
         <v>74</v>
       </c>
       <c r="B7" t="s">
-        <v>210</v>
+        <v>236</v>
       </c>
       <c r="C7" t="s">
         <v>74</v>
@@ -2451,7 +2526,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>211</v>
+        <v>237</v>
       </c>
       <c r="C2" t="s">
         <v>74</v>
@@ -2526,7 +2601,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>212</v>
+        <v>238</v>
       </c>
       <c r="C3" t="s">
         <v>74</v>
@@ -2601,7 +2676,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="C4" t="s">
         <v>74</v>
@@ -2679,7 +2754,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>214</v>
+        <v>240</v>
       </c>
       <c r="C5" t="s">
         <v>74</v>
@@ -2754,7 +2829,7 @@
         <v>74</v>
       </c>
       <c r="B6" t="s">
-        <v>215</v>
+        <v>241</v>
       </c>
       <c r="C6" t="s">
         <v>74</v>
@@ -2829,7 +2904,7 @@
         <v>74</v>
       </c>
       <c r="B7" t="s">
-        <v>216</v>
+        <v>242</v>
       </c>
       <c r="C7" t="s">
         <v>74</v>
@@ -2907,7 +2982,7 @@
         <v>74</v>
       </c>
       <c r="B8" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="C8" t="s">
         <v>74</v>
@@ -2982,7 +3057,7 @@
         <v>74</v>
       </c>
       <c r="B9" t="s">
-        <v>218</v>
+        <v>244</v>
       </c>
       <c r="C9" t="s">
         <v>74</v>
@@ -3057,7 +3132,7 @@
         <v>74</v>
       </c>
       <c r="B10" t="s">
-        <v>219</v>
+        <v>245</v>
       </c>
       <c r="C10" t="s">
         <v>74</v>

--- a/KatalonData/Bootstrap/VSP-Payments-Data-Prod.xlsx
+++ b/KatalonData/Bootstrap/VSP-Payments-Data-Prod.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="279">
   <si>
     <t>Notes</t>
   </si>
@@ -704,6 +704,177 @@
   </si>
   <si>
     <t>Wed May 21 15:59:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jun 16 18:42:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jun 16 18:43:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jun 16 18:44:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jun 16 18:45:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jun 16 18:45:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jun 16 18:46:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jun 16 18:46:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jun 16 18:47:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jun 16 18:48:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 17:53:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 17:53:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 17:54:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 17:55:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 17:55:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 17:56:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 17:57:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 17:57:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 17:58:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 17:58:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 17:59:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:00:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:00:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:01:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:02:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:02:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jul 28 19:23:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jul 28 19:23:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jul 28 19:23:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jul 28 19:23:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jul 28 19:24:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jul 28 19:24:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jul 28 19:24:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jul 28 19:24:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jul 28 19:24:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jul 28 19:24:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jul 28 19:24:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jul 28 19:25:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jul 28 19:25:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jul 28 19:25:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jul 28 19:25:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jul 28 19:25:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 04 20:27:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 04 20:28:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 04 20:28:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 04 20:29:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 04 20:30:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 04 20:31:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 04 20:32:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 04 20:33:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 04 20:33:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 04 20:34:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 04 20:35:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 04 20:36:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 04 20:37:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 04 20:37:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 04 20:38:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 04 20:40:37 IST 2025</t>
   </si>
 </sst>
 </file>
@@ -1206,10 +1377,10 @@
     </row>
     <row ht="43.2" r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>160</v>
       </c>
       <c r="B2" t="s">
-        <v>221</v>
+        <v>278</v>
       </c>
       <c r="C2" t="s">
         <v>74</v>
@@ -1822,10 +1993,10 @@
     </row>
     <row ht="43.2" r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>160</v>
       </c>
       <c r="B2" t="s">
-        <v>205</v>
+        <v>263</v>
       </c>
       <c r="C2" t="s">
         <v>74</v>
@@ -1903,10 +2074,10 @@
     </row>
     <row ht="43.2" r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>160</v>
       </c>
       <c r="B3" t="s">
-        <v>206</v>
+        <v>264</v>
       </c>
       <c r="C3" t="s">
         <v>74</v>
@@ -1984,10 +2155,10 @@
     </row>
     <row ht="43.2" r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>160</v>
       </c>
       <c r="B4" t="s">
-        <v>207</v>
+        <v>265</v>
       </c>
       <c r="C4" t="s">
         <v>74</v>
@@ -2065,10 +2236,10 @@
     </row>
     <row ht="43.2" r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>160</v>
       </c>
       <c r="B5" t="s">
-        <v>208</v>
+        <v>266</v>
       </c>
       <c r="C5" t="s">
         <v>74</v>
@@ -2146,10 +2317,10 @@
     </row>
     <row ht="43.2" r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>160</v>
       </c>
       <c r="B6" t="s">
-        <v>209</v>
+        <v>267</v>
       </c>
       <c r="C6" t="s">
         <v>74</v>
@@ -2227,10 +2398,10 @@
     </row>
     <row ht="43.2" r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>74</v>
+        <v>160</v>
       </c>
       <c r="B7" t="s">
-        <v>210</v>
+        <v>268</v>
       </c>
       <c r="C7" t="s">
         <v>74</v>
@@ -2448,10 +2619,10 @@
     </row>
     <row ht="43.2" r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>160</v>
       </c>
       <c r="B2" t="s">
-        <v>211</v>
+        <v>269</v>
       </c>
       <c r="C2" t="s">
         <v>74</v>
@@ -2523,10 +2694,10 @@
     </row>
     <row ht="43.2" r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>160</v>
       </c>
       <c r="B3" t="s">
-        <v>212</v>
+        <v>270</v>
       </c>
       <c r="C3" t="s">
         <v>74</v>
@@ -2598,10 +2769,10 @@
     </row>
     <row ht="43.2" r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>160</v>
       </c>
       <c r="B4" t="s">
-        <v>213</v>
+        <v>271</v>
       </c>
       <c r="C4" t="s">
         <v>74</v>
@@ -2676,10 +2847,10 @@
     </row>
     <row ht="43.2" r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>160</v>
       </c>
       <c r="B5" t="s">
-        <v>214</v>
+        <v>272</v>
       </c>
       <c r="C5" t="s">
         <v>74</v>
@@ -2751,10 +2922,10 @@
     </row>
     <row ht="43.2" r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>160</v>
       </c>
       <c r="B6" t="s">
-        <v>215</v>
+        <v>273</v>
       </c>
       <c r="C6" t="s">
         <v>74</v>
@@ -2826,10 +2997,10 @@
     </row>
     <row ht="43.2" r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>74</v>
+        <v>160</v>
       </c>
       <c r="B7" t="s">
-        <v>216</v>
+        <v>274</v>
       </c>
       <c r="C7" t="s">
         <v>74</v>
@@ -2904,10 +3075,10 @@
     </row>
     <row ht="43.2" r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>74</v>
+        <v>160</v>
       </c>
       <c r="B8" t="s">
-        <v>217</v>
+        <v>275</v>
       </c>
       <c r="C8" t="s">
         <v>74</v>
@@ -2979,10 +3150,10 @@
     </row>
     <row ht="43.2" r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>160</v>
       </c>
       <c r="B9" t="s">
-        <v>218</v>
+        <v>276</v>
       </c>
       <c r="C9" t="s">
         <v>74</v>
@@ -3054,10 +3225,10 @@
     </row>
     <row ht="43.2" r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>74</v>
+        <v>160</v>
       </c>
       <c r="B10" t="s">
-        <v>219</v>
+        <v>277</v>
       </c>
       <c r="C10" t="s">
         <v>74</v>

--- a/KatalonData/Bootstrap/VSP-Payments-Data-Prod.xlsx
+++ b/KatalonData/Bootstrap/VSP-Payments-Data-Prod.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1500" uniqueCount="333">
   <si>
     <t>Notes</t>
   </si>
@@ -875,6 +875,168 @@
   </si>
   <si>
     <t>Mon Aug 04 20:40:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 00:29:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 00:30:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 00:30:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 00:31:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 00:32:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 00:32:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 00:33:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 00:34:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 00:34:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 00:35:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 00:35:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 00:36:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 00:37:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 00:37:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 00:38:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 00:39:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 19:28:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 19:30:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 19:31:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 19:33:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 19:36:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 19:37:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 19:39:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 19:47:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 19:49:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 19:51:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 19:53:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 19:54:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 19:56:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 20:07:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 20:09:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 20:10:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 20:12:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 20:14:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 20:15:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 20:16:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 20:18:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 20:19:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 01:39:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 01:39:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 01:40:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 01:41:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 01:41:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 01:42:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 01:43:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 01:43:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 01:44:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 01:45:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 01:45:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 01:46:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 01:47:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 01:47:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 01:48:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 01:49:04 IST 2025</t>
   </si>
 </sst>
 </file>
@@ -1380,7 +1542,7 @@
         <v>160</v>
       </c>
       <c r="B2" t="s">
-        <v>278</v>
+        <v>332</v>
       </c>
       <c r="C2" t="s">
         <v>74</v>
@@ -1996,7 +2158,7 @@
         <v>160</v>
       </c>
       <c r="B2" t="s">
-        <v>263</v>
+        <v>317</v>
       </c>
       <c r="C2" t="s">
         <v>74</v>
@@ -2077,7 +2239,7 @@
         <v>160</v>
       </c>
       <c r="B3" t="s">
-        <v>264</v>
+        <v>318</v>
       </c>
       <c r="C3" t="s">
         <v>74</v>
@@ -2158,7 +2320,7 @@
         <v>160</v>
       </c>
       <c r="B4" t="s">
-        <v>265</v>
+        <v>319</v>
       </c>
       <c r="C4" t="s">
         <v>74</v>
@@ -2239,7 +2401,7 @@
         <v>160</v>
       </c>
       <c r="B5" t="s">
-        <v>266</v>
+        <v>320</v>
       </c>
       <c r="C5" t="s">
         <v>74</v>
@@ -2320,7 +2482,7 @@
         <v>160</v>
       </c>
       <c r="B6" t="s">
-        <v>267</v>
+        <v>321</v>
       </c>
       <c r="C6" t="s">
         <v>74</v>
@@ -2401,7 +2563,7 @@
         <v>160</v>
       </c>
       <c r="B7" t="s">
-        <v>268</v>
+        <v>322</v>
       </c>
       <c r="C7" t="s">
         <v>74</v>
@@ -2622,7 +2784,7 @@
         <v>160</v>
       </c>
       <c r="B2" t="s">
-        <v>269</v>
+        <v>323</v>
       </c>
       <c r="C2" t="s">
         <v>74</v>
@@ -2697,7 +2859,7 @@
         <v>160</v>
       </c>
       <c r="B3" t="s">
-        <v>270</v>
+        <v>324</v>
       </c>
       <c r="C3" t="s">
         <v>74</v>
@@ -2772,7 +2934,7 @@
         <v>160</v>
       </c>
       <c r="B4" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
       <c r="C4" t="s">
         <v>74</v>
@@ -2850,7 +3012,7 @@
         <v>160</v>
       </c>
       <c r="B5" t="s">
-        <v>272</v>
+        <v>326</v>
       </c>
       <c r="C5" t="s">
         <v>74</v>
@@ -2925,7 +3087,7 @@
         <v>160</v>
       </c>
       <c r="B6" t="s">
-        <v>273</v>
+        <v>327</v>
       </c>
       <c r="C6" t="s">
         <v>74</v>
@@ -3000,7 +3162,7 @@
         <v>160</v>
       </c>
       <c r="B7" t="s">
-        <v>274</v>
+        <v>328</v>
       </c>
       <c r="C7" t="s">
         <v>74</v>
@@ -3078,7 +3240,7 @@
         <v>160</v>
       </c>
       <c r="B8" t="s">
-        <v>275</v>
+        <v>329</v>
       </c>
       <c r="C8" t="s">
         <v>74</v>
@@ -3153,7 +3315,7 @@
         <v>160</v>
       </c>
       <c r="B9" t="s">
-        <v>276</v>
+        <v>330</v>
       </c>
       <c r="C9" t="s">
         <v>74</v>
@@ -3228,7 +3390,7 @@
         <v>160</v>
       </c>
       <c r="B10" t="s">
-        <v>277</v>
+        <v>331</v>
       </c>
       <c r="C10" t="s">
         <v>74</v>

--- a/KatalonData/Bootstrap/VSP-Payments-Data-Prod.xlsx
+++ b/KatalonData/Bootstrap/VSP-Payments-Data-Prod.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1500" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1628" uniqueCount="365">
   <si>
     <t>Notes</t>
   </si>
@@ -1037,6 +1037,102 @@
   </si>
   <si>
     <t>Tue Aug 12 01:49:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 20 23:03:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 20 23:04:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 20 23:04:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 20 23:05:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 20 23:06:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 20 23:06:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 20 23:07:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 20 23:08:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 20 23:08:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 20 23:09:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 20 23:10:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 20 23:10:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 20 23:11:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 20 23:12:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 20 23:12:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 20 23:13:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 22:48:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 22:49:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 22:50:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 22:50:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 22:51:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 22:52:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 22:53:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 22:54:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 22:54:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 22:55:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 22:56:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 22:57:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 22:58:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 22:58:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 22:59:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 23:00:26 IST 2025</t>
   </si>
 </sst>
 </file>
@@ -1539,10 +1635,10 @@
     </row>
     <row ht="43.2" r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>160</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>332</v>
+        <v>364</v>
       </c>
       <c r="C2" t="s">
         <v>74</v>
@@ -2155,10 +2251,10 @@
     </row>
     <row ht="43.2" r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>160</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>317</v>
+        <v>349</v>
       </c>
       <c r="C2" t="s">
         <v>74</v>
@@ -2236,10 +2332,10 @@
     </row>
     <row ht="43.2" r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>160</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>318</v>
+        <v>350</v>
       </c>
       <c r="C3" t="s">
         <v>74</v>
@@ -2317,10 +2413,10 @@
     </row>
     <row ht="43.2" r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>160</v>
+        <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>319</v>
+        <v>351</v>
       </c>
       <c r="C4" t="s">
         <v>74</v>
@@ -2398,10 +2494,10 @@
     </row>
     <row ht="43.2" r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>160</v>
+        <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>320</v>
+        <v>352</v>
       </c>
       <c r="C5" t="s">
         <v>74</v>
@@ -2479,10 +2575,10 @@
     </row>
     <row ht="43.2" r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>160</v>
+        <v>74</v>
       </c>
       <c r="B6" t="s">
-        <v>321</v>
+        <v>353</v>
       </c>
       <c r="C6" t="s">
         <v>74</v>
@@ -2560,10 +2656,10 @@
     </row>
     <row ht="43.2" r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>160</v>
+        <v>74</v>
       </c>
       <c r="B7" t="s">
-        <v>322</v>
+        <v>354</v>
       </c>
       <c r="C7" t="s">
         <v>74</v>
@@ -2781,10 +2877,10 @@
     </row>
     <row ht="43.2" r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>160</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>323</v>
+        <v>355</v>
       </c>
       <c r="C2" t="s">
         <v>74</v>
@@ -2856,10 +2952,10 @@
     </row>
     <row ht="43.2" r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>160</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>324</v>
+        <v>356</v>
       </c>
       <c r="C3" t="s">
         <v>74</v>
@@ -2931,10 +3027,10 @@
     </row>
     <row ht="43.2" r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>160</v>
+        <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>325</v>
+        <v>357</v>
       </c>
       <c r="C4" t="s">
         <v>74</v>
@@ -3009,10 +3105,10 @@
     </row>
     <row ht="43.2" r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>160</v>
+        <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>326</v>
+        <v>358</v>
       </c>
       <c r="C5" t="s">
         <v>74</v>
@@ -3084,10 +3180,10 @@
     </row>
     <row ht="43.2" r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>160</v>
+        <v>74</v>
       </c>
       <c r="B6" t="s">
-        <v>327</v>
+        <v>359</v>
       </c>
       <c r="C6" t="s">
         <v>74</v>
@@ -3159,10 +3255,10 @@
     </row>
     <row ht="43.2" r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>160</v>
+        <v>74</v>
       </c>
       <c r="B7" t="s">
-        <v>328</v>
+        <v>360</v>
       </c>
       <c r="C7" t="s">
         <v>74</v>
@@ -3237,10 +3333,10 @@
     </row>
     <row ht="43.2" r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>160</v>
+        <v>74</v>
       </c>
       <c r="B8" t="s">
-        <v>329</v>
+        <v>361</v>
       </c>
       <c r="C8" t="s">
         <v>74</v>
@@ -3312,10 +3408,10 @@
     </row>
     <row ht="43.2" r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>160</v>
+        <v>74</v>
       </c>
       <c r="B9" t="s">
-        <v>330</v>
+        <v>362</v>
       </c>
       <c r="C9" t="s">
         <v>74</v>
@@ -3387,10 +3483,10 @@
     </row>
     <row ht="43.2" r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>160</v>
+        <v>74</v>
       </c>
       <c r="B10" t="s">
-        <v>331</v>
+        <v>363</v>
       </c>
       <c r="C10" t="s">
         <v>74</v>

--- a/KatalonData/Bootstrap/VSP-Payments-Data-Prod.xlsx
+++ b/KatalonData/Bootstrap/VSP-Payments-Data-Prod.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1628" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1756" uniqueCount="397">
   <si>
     <t>Notes</t>
   </si>
@@ -1133,6 +1133,102 @@
   </si>
   <si>
     <t>Fri Aug 22 23:00:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 27 22:36:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 27 22:37:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 27 22:38:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 27 22:39:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 27 22:39:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 27 22:40:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 27 22:41:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 27 22:42:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 27 22:43:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 27 22:43:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 27 22:44:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 27 22:45:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 27 22:46:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 27 22:47:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 27 22:47:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 27 22:48:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 07:38:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 07:38:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 07:39:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 07:40:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 07:41:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 07:42:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 07:43:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 07:44:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 07:45:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 07:45:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 07:46:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 07:47:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 07:48:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 07:49:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 07:49:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 07:50:38 IST 2025</t>
   </si>
 </sst>
 </file>
@@ -1638,7 +1734,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>364</v>
+        <v>396</v>
       </c>
       <c r="C2" t="s">
         <v>74</v>
@@ -2254,7 +2350,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>349</v>
+        <v>381</v>
       </c>
       <c r="C2" t="s">
         <v>74</v>
@@ -2335,7 +2431,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>350</v>
+        <v>382</v>
       </c>
       <c r="C3" t="s">
         <v>74</v>
@@ -2416,7 +2512,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>351</v>
+        <v>383</v>
       </c>
       <c r="C4" t="s">
         <v>74</v>
@@ -2497,7 +2593,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>352</v>
+        <v>384</v>
       </c>
       <c r="C5" t="s">
         <v>74</v>
@@ -2578,7 +2674,7 @@
         <v>74</v>
       </c>
       <c r="B6" t="s">
-        <v>353</v>
+        <v>385</v>
       </c>
       <c r="C6" t="s">
         <v>74</v>
@@ -2659,7 +2755,7 @@
         <v>74</v>
       </c>
       <c r="B7" t="s">
-        <v>354</v>
+        <v>386</v>
       </c>
       <c r="C7" t="s">
         <v>74</v>
@@ -2880,7 +2976,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>355</v>
+        <v>387</v>
       </c>
       <c r="C2" t="s">
         <v>74</v>
@@ -2955,7 +3051,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>356</v>
+        <v>388</v>
       </c>
       <c r="C3" t="s">
         <v>74</v>
@@ -3030,7 +3126,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>357</v>
+        <v>389</v>
       </c>
       <c r="C4" t="s">
         <v>74</v>
@@ -3108,7 +3204,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>358</v>
+        <v>390</v>
       </c>
       <c r="C5" t="s">
         <v>74</v>
@@ -3183,7 +3279,7 @@
         <v>74</v>
       </c>
       <c r="B6" t="s">
-        <v>359</v>
+        <v>391</v>
       </c>
       <c r="C6" t="s">
         <v>74</v>
@@ -3258,7 +3354,7 @@
         <v>74</v>
       </c>
       <c r="B7" t="s">
-        <v>360</v>
+        <v>392</v>
       </c>
       <c r="C7" t="s">
         <v>74</v>
@@ -3336,7 +3432,7 @@
         <v>74</v>
       </c>
       <c r="B8" t="s">
-        <v>361</v>
+        <v>393</v>
       </c>
       <c r="C8" t="s">
         <v>74</v>
@@ -3411,7 +3507,7 @@
         <v>74</v>
       </c>
       <c r="B9" t="s">
-        <v>362</v>
+        <v>394</v>
       </c>
       <c r="C9" t="s">
         <v>74</v>
@@ -3486,7 +3582,7 @@
         <v>74</v>
       </c>
       <c r="B10" t="s">
-        <v>363</v>
+        <v>395</v>
       </c>
       <c r="C10" t="s">
         <v>74</v>

--- a/KatalonData/Bootstrap/VSP-Payments-Data-Prod.xlsx
+++ b/KatalonData/Bootstrap/VSP-Payments-Data-Prod.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1756" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1820" uniqueCount="413">
   <si>
     <t>Notes</t>
   </si>
@@ -1229,6 +1229,54 @@
   </si>
   <si>
     <t>Thu Aug 28 07:50:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 06:23:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 06:24:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 06:25:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 06:25:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 06:26:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 06:27:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 06:28:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 06:28:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 06:29:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 06:30:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 06:31:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 06:31:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 06:32:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 06:33:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 06:34:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 06:35:07 IST 2025</t>
   </si>
 </sst>
 </file>
@@ -1734,7 +1782,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>396</v>
+        <v>412</v>
       </c>
       <c r="C2" t="s">
         <v>74</v>
@@ -2350,7 +2398,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>381</v>
+        <v>397</v>
       </c>
       <c r="C2" t="s">
         <v>74</v>
@@ -2431,7 +2479,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>382</v>
+        <v>398</v>
       </c>
       <c r="C3" t="s">
         <v>74</v>
@@ -2512,7 +2560,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="C4" t="s">
         <v>74</v>
@@ -2593,7 +2641,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>384</v>
+        <v>400</v>
       </c>
       <c r="C5" t="s">
         <v>74</v>
@@ -2674,7 +2722,7 @@
         <v>74</v>
       </c>
       <c r="B6" t="s">
-        <v>385</v>
+        <v>401</v>
       </c>
       <c r="C6" t="s">
         <v>74</v>
@@ -2755,7 +2803,7 @@
         <v>74</v>
       </c>
       <c r="B7" t="s">
-        <v>386</v>
+        <v>402</v>
       </c>
       <c r="C7" t="s">
         <v>74</v>
@@ -2976,7 +3024,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>387</v>
+        <v>403</v>
       </c>
       <c r="C2" t="s">
         <v>74</v>
@@ -3051,7 +3099,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>388</v>
+        <v>404</v>
       </c>
       <c r="C3" t="s">
         <v>74</v>
@@ -3126,7 +3174,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>389</v>
+        <v>405</v>
       </c>
       <c r="C4" t="s">
         <v>74</v>
@@ -3204,7 +3252,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>390</v>
+        <v>406</v>
       </c>
       <c r="C5" t="s">
         <v>74</v>
@@ -3279,7 +3327,7 @@
         <v>74</v>
       </c>
       <c r="B6" t="s">
-        <v>391</v>
+        <v>407</v>
       </c>
       <c r="C6" t="s">
         <v>74</v>
@@ -3354,7 +3402,7 @@
         <v>74</v>
       </c>
       <c r="B7" t="s">
-        <v>392</v>
+        <v>408</v>
       </c>
       <c r="C7" t="s">
         <v>74</v>
@@ -3432,7 +3480,7 @@
         <v>74</v>
       </c>
       <c r="B8" t="s">
-        <v>393</v>
+        <v>409</v>
       </c>
       <c r="C8" t="s">
         <v>74</v>
@@ -3507,7 +3555,7 @@
         <v>74</v>
       </c>
       <c r="B9" t="s">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="C9" t="s">
         <v>74</v>
@@ -3582,7 +3630,7 @@
         <v>74</v>
       </c>
       <c r="B10" t="s">
-        <v>395</v>
+        <v>411</v>
       </c>
       <c r="C10" t="s">
         <v>74</v>

--- a/KatalonData/Bootstrap/VSP-Payments-Data-Prod.xlsx
+++ b/KatalonData/Bootstrap/VSP-Payments-Data-Prod.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1820" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2012" uniqueCount="461">
   <si>
     <t>Notes</t>
   </si>
@@ -1277,6 +1277,150 @@
   </si>
   <si>
     <t>Thu Sep 04 06:35:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 22:24:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 22:25:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 22:26:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 22:27:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 22:28:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 22:29:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 22:29:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 22:30:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 22:31:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 22:32:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 22:33:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 22:34:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 22:35:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 22:35:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 22:36:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 22:37:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 01:09:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 01:09:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 01:10:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 01:11:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 01:12:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 01:12:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 01:13:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 01:14:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 01:15:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 01:15:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 01:16:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 01:17:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 01:18:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 01:19:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 01:19:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 01:20:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 16:18:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 16:19:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 16:20:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 16:21:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 16:22:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 16:22:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 16:23:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 16:24:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 16:24:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 16:25:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 16:26:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 16:27:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 16:27:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 16:28:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 16:29:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 16:29:59 IST 2025</t>
   </si>
 </sst>
 </file>
@@ -1782,7 +1926,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>412</v>
+        <v>460</v>
       </c>
       <c r="C2" t="s">
         <v>74</v>
@@ -2398,7 +2542,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>397</v>
+        <v>445</v>
       </c>
       <c r="C2" t="s">
         <v>74</v>
@@ -2479,7 +2623,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>398</v>
+        <v>446</v>
       </c>
       <c r="C3" t="s">
         <v>74</v>
@@ -2560,7 +2704,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>399</v>
+        <v>447</v>
       </c>
       <c r="C4" t="s">
         <v>74</v>
@@ -2641,7 +2785,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>400</v>
+        <v>448</v>
       </c>
       <c r="C5" t="s">
         <v>74</v>
@@ -2722,7 +2866,7 @@
         <v>74</v>
       </c>
       <c r="B6" t="s">
-        <v>401</v>
+        <v>449</v>
       </c>
       <c r="C6" t="s">
         <v>74</v>
@@ -2803,7 +2947,7 @@
         <v>74</v>
       </c>
       <c r="B7" t="s">
-        <v>402</v>
+        <v>450</v>
       </c>
       <c r="C7" t="s">
         <v>74</v>
@@ -3024,7 +3168,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>403</v>
+        <v>451</v>
       </c>
       <c r="C2" t="s">
         <v>74</v>
@@ -3099,7 +3243,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>404</v>
+        <v>452</v>
       </c>
       <c r="C3" t="s">
         <v>74</v>
@@ -3174,7 +3318,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>405</v>
+        <v>453</v>
       </c>
       <c r="C4" t="s">
         <v>74</v>
@@ -3252,7 +3396,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>406</v>
+        <v>454</v>
       </c>
       <c r="C5" t="s">
         <v>74</v>
@@ -3327,7 +3471,7 @@
         <v>74</v>
       </c>
       <c r="B6" t="s">
-        <v>407</v>
+        <v>455</v>
       </c>
       <c r="C6" t="s">
         <v>74</v>
@@ -3402,7 +3546,7 @@
         <v>74</v>
       </c>
       <c r="B7" t="s">
-        <v>408</v>
+        <v>456</v>
       </c>
       <c r="C7" t="s">
         <v>74</v>
@@ -3480,7 +3624,7 @@
         <v>74</v>
       </c>
       <c r="B8" t="s">
-        <v>409</v>
+        <v>457</v>
       </c>
       <c r="C8" t="s">
         <v>74</v>
@@ -3555,7 +3699,7 @@
         <v>74</v>
       </c>
       <c r="B9" t="s">
-        <v>410</v>
+        <v>458</v>
       </c>
       <c r="C9" t="s">
         <v>74</v>
@@ -3630,7 +3774,7 @@
         <v>74</v>
       </c>
       <c r="B10" t="s">
-        <v>411</v>
+        <v>459</v>
       </c>
       <c r="C10" t="s">
         <v>74</v>

--- a/KatalonData/Bootstrap/VSP-Payments-Data-Prod.xlsx
+++ b/KatalonData/Bootstrap/VSP-Payments-Data-Prod.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2012" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2204" uniqueCount="509">
   <si>
     <t>Notes</t>
   </si>
@@ -1421,6 +1421,150 @@
   </si>
   <si>
     <t>Mon Nov 10 16:29:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 07:42:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 07:43:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 07:44:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 07:45:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 07:46:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 07:47:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 07:48:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 07:48:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 07:49:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 07:50:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 07:51:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 07:52:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 07:53:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 07:53:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 07:54:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 07:55:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 15:15:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 15:16:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 15:17:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 15:18:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 15:19:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 15:19:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 15:20:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 15:21:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 15:22:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 15:23:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 15:24:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 15:25:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 15:26:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 15:27:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 15:28:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 15:29:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 19:11:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 19:12:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 19:13:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 19:14:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 19:15:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 19:16:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 19:18:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 19:19:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 19:20:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 19:21:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 19:22:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 19:23:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 19:24:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 19:24:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 19:25:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 19:26:46 IST 2025</t>
   </si>
 </sst>
 </file>
@@ -1926,7 +2070,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>460</v>
+        <v>508</v>
       </c>
       <c r="C2" t="s">
         <v>74</v>
@@ -2542,7 +2686,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>445</v>
+        <v>493</v>
       </c>
       <c r="C2" t="s">
         <v>74</v>
@@ -2623,7 +2767,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>446</v>
+        <v>494</v>
       </c>
       <c r="C3" t="s">
         <v>74</v>
@@ -2704,7 +2848,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>447</v>
+        <v>495</v>
       </c>
       <c r="C4" t="s">
         <v>74</v>
@@ -2785,7 +2929,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>448</v>
+        <v>496</v>
       </c>
       <c r="C5" t="s">
         <v>74</v>
@@ -2866,7 +3010,7 @@
         <v>74</v>
       </c>
       <c r="B6" t="s">
-        <v>449</v>
+        <v>497</v>
       </c>
       <c r="C6" t="s">
         <v>74</v>
@@ -2947,7 +3091,7 @@
         <v>74</v>
       </c>
       <c r="B7" t="s">
-        <v>450</v>
+        <v>498</v>
       </c>
       <c r="C7" t="s">
         <v>74</v>
@@ -3168,7 +3312,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>451</v>
+        <v>499</v>
       </c>
       <c r="C2" t="s">
         <v>74</v>
@@ -3243,7 +3387,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>452</v>
+        <v>500</v>
       </c>
       <c r="C3" t="s">
         <v>74</v>
@@ -3318,7 +3462,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>453</v>
+        <v>501</v>
       </c>
       <c r="C4" t="s">
         <v>74</v>
@@ -3396,7 +3540,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>454</v>
+        <v>502</v>
       </c>
       <c r="C5" t="s">
         <v>74</v>
@@ -3471,7 +3615,7 @@
         <v>74</v>
       </c>
       <c r="B6" t="s">
-        <v>455</v>
+        <v>503</v>
       </c>
       <c r="C6" t="s">
         <v>74</v>
@@ -3546,7 +3690,7 @@
         <v>74</v>
       </c>
       <c r="B7" t="s">
-        <v>456</v>
+        <v>504</v>
       </c>
       <c r="C7" t="s">
         <v>74</v>
@@ -3624,7 +3768,7 @@
         <v>74</v>
       </c>
       <c r="B8" t="s">
-        <v>457</v>
+        <v>505</v>
       </c>
       <c r="C8" t="s">
         <v>74</v>
@@ -3699,7 +3843,7 @@
         <v>74</v>
       </c>
       <c r="B9" t="s">
-        <v>458</v>
+        <v>506</v>
       </c>
       <c r="C9" t="s">
         <v>74</v>
@@ -3774,7 +3918,7 @@
         <v>74</v>
       </c>
       <c r="B10" t="s">
-        <v>459</v>
+        <v>507</v>
       </c>
       <c r="C10" t="s">
         <v>74</v>
